--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原包材在库 下单数量未做</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -457,7 +461,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -566,9 +570,15 @@
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -73,6 +73,10 @@
   </si>
   <si>
     <t>原包材在库 下单数量未做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -144,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,6 +158,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -461,7 +466,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -579,8 +584,12 @@
       <c r="C8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5">
+        <v>43225</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -77,6 +77,22 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单页面生成后，添加品目，返回，提示重新提交数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库明细，已出库的话不要显示在库了。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单明细，显示已经出库数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库单查询支持模糊查询</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,7 +482,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -592,29 +608,47 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -93,6 +93,14 @@
   </si>
   <si>
     <t>入出库单查询支持模糊查询</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -482,7 +490,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -520,10 +528,14 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5">
+        <v>43225</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -533,10 +545,14 @@
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="5">
+        <v>43225</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -546,10 +562,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43225</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -559,10 +579,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="5">
+        <v>43225</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -572,10 +596,14 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5">
+        <v>43235</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -587,8 +615,12 @@
       <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>43235</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="4">

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -101,6 +101,36 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>采购单直接发送供应商邮件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生产入库统计 原包材入库统计 需要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对于某个品目 多少个订单相关统计 一共多少，出货多少</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半成品按照小单位入库，然后计算可以算多少个成品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库后，某一订单全部完成时自动更新订单状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>产品出库选择订单按照订单下单日排序，先下单者先显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">某一台机器，维修日期，原因，更换部件，列出。指定时间内，
+同一故障在各个机器出现次数，某一台机器故障次数统计排列从多到少
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -108,17 +138,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -172,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -183,9 +213,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -201,7 +235,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -243,7 +277,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +312,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -490,10 +524,10 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.625" style="1" customWidth="1"/>
@@ -503,7 +537,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -520,7 +554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -537,7 +571,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -554,7 +588,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -571,7 +605,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -588,7 +622,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -605,7 +639,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -622,7 +656,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -639,7 +673,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -652,7 +686,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -663,7 +697,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -674,7 +708,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -685,112 +719,138 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="42.75">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="B19" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -60,11 +63,96 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Q</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Q</t>
+    <t>原包材在库 下单数量未做</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单页面生成后，添加品目，返回，提示重新提交数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库明细，已出库的话不要显示在库了。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单明细，显示已经出库数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库单查询支持模糊查询</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对于某个品目 多少个订单相关统计 一共多少，出货多少</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半成品按照小单位入库，然后计算可以算多少个成品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库后，某一订单全部完成时自动更新订单状态</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>产品出库选择订单按照订单下单日排序，先下单者先显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>采购单需要承认处理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zhangxiaofeng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>某一台机器，维修日期，原因，更换部件，列出。指定时间内，
+同一故障在各个机器出现次数，某一台机器故障次数统计排列从多到少</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>采购单直接附件发送供应商邮件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生产入库统计 原包材入库统计 需要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>对应备注</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#生产入库统计 暂时未做，好像没有意义</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>采购单入库</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>favicon要做一个16*16小的，否则显示不正常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>list显示时，可以删除入库单</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入库单一览增加状态，计划还是已经入库</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库添加一览按钮，状态过滤下拉框</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -72,65 +160,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>原包材在库 下单数量未做</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>订单页面生成后，添加品目，返回，提示重新提交数据</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出库明细，已出库的话不要显示在库了。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>订单明细，显示已经出库数量</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入出库单查询支持模糊查询</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>采购单直接发送供应商邮件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生产入库统计 原包材入库统计 需要</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>对于某个品目 多少个订单相关统计 一共多少，出货多少</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半成品按照小单位入库，然后计算可以算多少个成品</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出库后，某一订单全部完成时自动更新订单状态</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>产品出库选择订单按照订单下单日排序，先下单者先显示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">某一台机器，维修日期，原因，更换部件，列出。指定时间内，
-同一故障在各个机器出现次数，某一台机器故障次数统计排列从多到少
-</t>
+    <t>超时需要再登录，或者重启再登录时，登录画面需要刷新到整个index，不能嵌套在右边部分</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>其他权限系统的考虑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数据更新插入当前用户和时间 AOP？ 所有XML也要改一遍。。。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -138,17 +180,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -202,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -217,9 +259,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -235,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -277,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -312,7 +364,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,343 +573,563 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="4.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="61.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5">
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5">
         <v>43225</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="5">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="5">
         <v>43225</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5">
         <v>43235</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5">
+        <v>43235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5">
-        <v>43235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="5">
-        <v>43225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4">
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C15" s="6"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C16" s="6"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4">
+      <c r="B17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="42.75">
-      <c r="A19" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="5">
+        <v>43242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="5">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="5">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="5">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F26">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入出库添加一览按钮，状态过滤下拉框</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -173,6 +169,38 @@
   </si>
   <si>
     <t>数据更新插入当前用户和时间 AOP？ 所有XML也要改一遍。。。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库的BOM、MP只显示当前库中有的项目</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>查询 新建出库单按钮只在一览画面显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库添加一览按钮</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出库状态过滤下拉框</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,7 +605,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -852,7 +880,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -860,9 +888,15 @@
         <v>18</v>
       </c>
       <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="5">
+        <v>43243</v>
+      </c>
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
@@ -947,7 +981,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -963,10 +997,10 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F23" s="5">
         <v>43243</v>
@@ -981,10 +1015,10 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F24" s="5">
         <v>43243</v>
@@ -999,33 +1033,39 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="F25" s="5">
         <v>43243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="5">
+        <v>43244</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1037,32 +1077,56 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="4"/>
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5">
+        <v>43244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="5">
+        <v>43244</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="10">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1125,7 +1189,7 @@
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F26">
+  <autoFilter ref="A1:F31">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>删除子类时，注意也要删除原包材关联表</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,7 +609,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1133,8 +1137,12 @@
       <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="10">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -205,6 +205,26 @@
   </si>
   <si>
     <t>删除子类时，注意也要删除原包材关联表</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通知管理数字更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暂时只对应了更新时间，交给DB自动更新</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单详细页面可设置不显示原包材</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用户权限设定打开时未更新当前信息</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -609,7 +629,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1064,7 +1084,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1072,21 +1092,35 @@
         <v>36</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="5">
+        <v>43247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5">
+        <v>43247</v>
+      </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
@@ -1136,7 +1170,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -1144,29 +1178,47 @@
         <v>46</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="5">
+        <v>43247</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="10"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="10">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="10"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="10">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="10">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1197,7 +1249,7 @@
       <c r="F38" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31">
+  <autoFilter ref="A1:F33">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>用户权限设定打开时未更新当前信息</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>订单新建页面通过箭头该日期后，不能提交。提交的日期为空</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>设备备件入库详细选择-》切换到其他页面-》切回备件入库，默认会按照上次入库详细画面显示</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>采购单默认下单数量为需求量-在库量，充足的时候默认为1好了</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出库的数量不能大于订单数量</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -232,17 +248,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -323,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -339,7 +355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,7 +397,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,7 +432,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -626,13 +642,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="61.625" style="1" customWidth="1"/>
@@ -642,7 +658,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -662,7 +678,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -680,7 +696,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -698,7 +714,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -716,7 +732,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -734,7 +750,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -752,7 +768,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -770,7 +786,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -788,7 +804,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -806,7 +822,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -824,7 +840,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -842,7 +858,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -860,7 +876,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -872,7 +888,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -892,7 +908,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -904,7 +920,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -922,7 +938,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -940,7 +956,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -958,7 +974,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="28.5">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -970,7 +986,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -982,7 +998,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1000,7 +1016,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1012,7 +1028,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1030,7 +1046,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1048,7 +1064,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1084,7 +1100,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1102,7 +1118,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1122,7 +1138,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1140,7 +1156,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1158,7 +1174,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -1170,7 +1186,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -1200,7 +1216,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -1212,7 +1228,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -1224,7 +1240,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="10"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -1232,21 +1248,35 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="10"/>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="10"/>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="B40" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F33">

--- a/doc/todo/todo.xlsx
+++ b/doc/todo/todo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$53</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>出库的数量不能大于订单数量</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zhangxiaofeng</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zhaiqiang</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -248,17 +260,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -339,7 +351,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -355,7 +367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -397,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,7 +444,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,13 +654,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.125" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="61.625" style="1" customWidth="1"/>
@@ -658,7 +670,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -678,7 +690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -696,7 +708,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -714,7 +726,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -732,7 +744,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -750,7 +762,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -768,7 +780,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -786,7 +798,7 @@
         <v>43235</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -804,7 +816,7 @@
         <v>43225</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -822,7 +834,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -840,7 +852,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -858,7 +870,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -876,7 +888,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -888,7 +900,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" hidden="1">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -908,7 +920,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -920,7 +932,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" hidden="1">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -938,7 +950,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -956,7 +968,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -974,7 +986,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="28.5">
+    <row r="19" spans="1:6" ht="28.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -982,11 +994,15 @@
         <v>24</v>
       </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -994,11 +1010,15 @@
         <v>22</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" hidden="1">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1016,7 +1036,7 @@
         <v>43242</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -1028,7 +1048,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" hidden="1">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1046,7 +1066,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -1064,7 +1084,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1082,7 +1102,7 @@
         <v>43243</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -1100,7 +1120,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -1118,7 +1138,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -1138,7 +1158,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -1156,7 +1176,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -1174,7 +1194,7 @@
         <v>43244</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>28</v>
       </c>
@@ -1186,7 +1206,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:6" hidden="1">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>29</v>
       </c>
@@ -1204,7 +1224,7 @@
         <v>43247</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>30</v>
       </c>
@@ -1212,11 +1232,15 @@
         <v>47</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F33" s="4"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>31</v>
       </c>
@@ -1228,7 +1252,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>32</v>
       </c>
@@ -1236,20 +1260,28 @@
         <v>51</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F35" s="4"/>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="10"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>33</v>
+      </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="10"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>31</v>
+      </c>
       <c r="B37" s="4" t="s">
         <v>52</v>
       </c>
@@ -1258,28 +1290,178 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>32</v>
+      </c>
       <c r="B38" s="4" t="s">
         <v>53</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="F38" s="4"/>
     </row>
-    <row r="39" spans="1:6">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="1" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>32</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>32</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>32</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>32</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>32</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>32</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>32</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>32</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>32</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>32</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>32</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F33">
+  <autoFilter ref="A1:F53">
     <filterColumn colId="4">
       <filters blank="1"/>
     </filterColumn>
